--- a/biology/Botanique/Ludia_(plante)/Ludia_(plante).xlsx
+++ b/biology/Botanique/Ludia_(plante)/Ludia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludia est un genre de plantes à fleurs de la famille des Salicaceae. Il comprend plus d'une vingtaine espèces d'arbres ou arbustes, endémiques de Madagascar et de la côte Centre-Est de l'Afrique.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ludia est naturellement représenté en Aldabra, au Kenya, à Madagascar, sur l'Île Maurice, dans les Seychelles, et en Tanzanie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ludia est naturellement représenté en Aldabra, au Kenya, à Madagascar, sur l'Île Maurice, dans les Seychelles, et en Tanzanie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbres ou arbustes à feuilles persistantes, alternes, coriaces, entières, pennées, les nerfs souvent en forte pente, réticulation nettement relevée sur les deux faces, pétiolées, exstipulées[2].
-Les fleurs sont bisexuelles, petites, solitaires, ou rarement par deux ou trois à partir du même aisselle, subsessiles, sous-tendues par plusieurs minuscules bractées suborbiculaires imbriquées. Elles possèdent cinq ou six sépales et aucun pétale. Les étamines sont en nombre indéfini, insérées sur un réceptacle plat, avec de nombreux poils entre les filaments filiformes ; les anthères sont petites ; conjonctives généralement assez obscures. L'ovaire a 2 à 4 placentas qui portent peu ou pas d'ovules ; le style est en colonne, souvent plus ou moins profondément trilobé ou partiellement distal. Le fruit est baccate, à peine ou tardivement et irrégulièrement déhiscent ; le péricarpe est coriace. Il y a peu de graines ; le testa est dur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres ou arbustes à feuilles persistantes, alternes, coriaces, entières, pennées, les nerfs souvent en forte pente, réticulation nettement relevée sur les deux faces, pétiolées, exstipulées.
+Les fleurs sont bisexuelles, petites, solitaires, ou rarement par deux ou trois à partir du même aisselle, subsessiles, sous-tendues par plusieurs minuscules bractées suborbiculaires imbriquées. Elles possèdent cinq ou six sépales et aucun pétale. Les étamines sont en nombre indéfini, insérées sur un réceptacle plat, avec de nombreux poils entre les filaments filiformes ; les anthères sont petites ; conjonctives généralement assez obscures. L'ovaire a 2 à 4 placentas qui portent peu ou pas d'ovules ; le style est en colonne, souvent plus ou moins profondément trilobé ou partiellement distal. Le fruit est baccate, à peine ou tardivement et irrégulièrement déhiscent ; le péricarpe est coriace. Il y a peu de graines ; le testa est dur.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (16 décembre 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (16 décembre 2020) :
 Ludia ankaranensis Capuron &amp; Sleumer
 Ludia antanosarum Capuron &amp; Sleumer
 Ludia arborea H.Perrier
